--- a/biology/Microbiologie/Michael_Houghton/Michael_Houghton.xlsx
+++ b/biology/Microbiologie/Michael_Houghton/Michael_Houghton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Houghton est un biologiste britannique. Il est lauréat du prix Nobel de médecine 2020 aux côtés de Harvey J. Alter et de Charles M. Rice pour leurs travaux sur le virus de l'hépatite C.
 </t>
